--- a/source_data_old/18_data.xlsx
+++ b/source_data_old/18_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step3_NewData\_Formatted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{F7A69D2E-9ABE-48C8-8141-5A6B09F0FDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07A75DFF-0DFE-4912-AD21-8F52F370D44C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBC1F7C-23A7-4641-886B-EDA13336D874}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1509,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BB724"/>
+  <dimension ref="A1:Z724"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1536,7 +1536,7 @@
     <col min="22" max="22" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,36 +1613,8 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-    </row>
-    <row r="2" spans="1:54">
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>18</v>
       </c>
@@ -1719,7 +1691,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>18</v>
       </c>
@@ -1796,7 +1768,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1873,7 +1845,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>18</v>
       </c>
@@ -1950,7 +1922,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>18</v>
       </c>
@@ -2027,7 +1999,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>18</v>
       </c>
@@ -2104,7 +2076,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>18</v>
       </c>
@@ -2181,7 +2153,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>18</v>
       </c>
@@ -2258,7 +2230,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>18</v>
       </c>
@@ -2335,7 +2307,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>18</v>
       </c>
@@ -2412,7 +2384,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>18</v>
       </c>
@@ -2489,7 +2461,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>18</v>
       </c>
@@ -2566,7 +2538,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>18</v>
       </c>
@@ -2643,7 +2615,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>18</v>
       </c>
@@ -2720,7 +2692,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>18</v>
       </c>
@@ -57314,11 +57286,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y724" xr:uid="{25DA6AD0-E7C6-4A78-B13B-508BEC05406E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y724">
-      <sortCondition ref="O1:O724"/>
-    </sortState>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X724">
     <sortCondition ref="S2"/>
   </sortState>
@@ -57567,13 +57534,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A445F5FB-8CE2-4967-8854-4DCDB60E0B45}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A445F5FB-8CE2-4967-8854-4DCDB60E0B45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA049AAD-EAA0-4764-987C-36C881055AD0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA049AAD-EAA0-4764-987C-36C881055AD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA153B0B-A051-4599-BE16-2B79F2C37732}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA153B0B-A051-4599-BE16-2B79F2C37732}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+    <ds:schemaRef ds:uri="81cf108f-c583-47b3-8493-b6de3c823d22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>